--- a/DOCUMENTI/StimeDeiCosti.xlsx
+++ b/DOCUMENTI/StimeDeiCosti.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mapon\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tecno\ProgettoGitHub\Ped-Light\DOCUMENTI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F451CE8-CE07-4F2A-88B0-2286D661B8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C1A4BF-1BAB-461A-B696-8D478F90600C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{9DB9D18E-FFB2-4BA9-A1AA-5D2D7EA12481}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{9DB9D18E-FFB2-4BA9-A1AA-5D2D7EA12481}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Costo prodotti</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Costo(x Unità)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Prototipo</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,13 +460,21 @@
         <v>2300</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>49.99</v>
+      </c>
+    </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <f>SUM(C3+C5*6+C6*2)</f>
-        <v>21435.94</v>
+        <f>SUM(C3+C5*6+C6*2+C7*2)</f>
+        <v>21535.919999999998</v>
       </c>
     </row>
   </sheetData>
